--- a/src/main/java/com/caw/qa/testdata/NewCustomerPortalTestdata.xlsx
+++ b/src/main/java/com/caw/qa/testdata/NewCustomerPortalTestdata.xlsx
@@ -5,51 +5,314 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="208" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="558" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SignupData" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="ReviewData" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="CheckOutPageData" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="DeliveryOrderDetails" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="PickupOrderDetails" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="PickupOrderWithLoginUsers" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Password</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="94">
+  <si>
+    <t>fName</t>
+  </si>
+  <si>
+    <t>lName</t>
+  </si>
+  <si>
+    <t>adress1</t>
+  </si>
+  <si>
+    <t>stateName</t>
+  </si>
+  <si>
+    <t>cityName</t>
+  </si>
+  <si>
+    <t>email1</t>
+  </si>
+  <si>
+    <t>email2</t>
+  </si>
+  <si>
+    <t>zipcode</t>
+  </si>
+  <si>
+    <t>phnNum</t>
+  </si>
+  <si>
+    <t>mobNum</t>
+  </si>
+  <si>
+    <t>faxNo</t>
+  </si>
+  <si>
+    <t>Nikhil</t>
+  </si>
+  <si>
+    <t>kale</t>
+  </si>
+  <si>
+    <t>Domminos pizza 58 central st</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Leominster</t>
+  </si>
+  <si>
+    <t>aaaaacl@bnt.com</t>
+  </si>
+  <si>
+    <t>01453</t>
+  </si>
+  <si>
+    <t>1234567891</t>
+  </si>
+  <si>
+    <t>review text</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>The best restaurant in city</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>locationName</t>
+  </si>
+  <si>
+    <t>ordertype</t>
+  </si>
+  <si>
+    <t>menuname</t>
+  </si>
+  <si>
+    <t>itemname</t>
+  </si>
+  <si>
+    <t>addonName</t>
+  </si>
+  <si>
+    <t>optionName</t>
+  </si>
+  <si>
+    <t>tipAmount</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>confirm email</t>
+  </si>
+  <si>
+    <t>phoneno</t>
+  </si>
+  <si>
+    <t>mobNo</t>
+  </si>
+  <si>
+    <t>FaxNo</t>
+  </si>
+  <si>
+    <t>additional instructions</t>
+  </si>
+  <si>
+    <t>billingadd1</t>
+  </si>
+  <si>
+    <t>cityb</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>credittype</t>
+  </si>
+  <si>
+    <t>creditCradNum</t>
+  </si>
+  <si>
+    <t>expyDate</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>cvv</t>
+  </si>
+  <si>
+    <t>zipc</t>
+  </si>
+  <si>
+    <t>RolyPoly Aundh</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>Italian food</t>
+  </si>
+  <si>
+    <t>Pasta Carbonara</t>
+  </si>
+  <si>
+    <t>Calozone</t>
+  </si>
+  <si>
+    <t>cal1</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>nikhil</t>
   </si>
   <si>
     <t>nikhil.kale@bnt-soft.com</t>
   </si>
   <si>
-    <t>vaishali.shingare@bnt-soft.com</t>
-  </si>
-  <si>
-    <t>review text</t>
-  </si>
-  <si>
-    <t>star</t>
-  </si>
-  <si>
-    <t>The best restaurant in city</t>
-  </si>
-  <si>
-    <t>five</t>
+    <t>test data</t>
+  </si>
+  <si>
+    <t>leominster</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>4111111111111111</t>
+  </si>
+  <si>
+    <t>0422</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>locationname</t>
+  </si>
+  <si>
+    <t>addr1</t>
+  </si>
+  <si>
+    <t>addr2</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>custZip</t>
+  </si>
+  <si>
+    <t>orderType</t>
+  </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>lname</t>
+  </si>
+  <si>
+    <t>emailId</t>
+  </si>
+  <si>
+    <t>cnfEmail</t>
+  </si>
+  <si>
+    <t>phNo</t>
+  </si>
+  <si>
+    <t>faxNum</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>paymentType</t>
+  </si>
+  <si>
+    <t>cardNum</t>
+  </si>
+  <si>
+    <t>expDate</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>giftcardNum</t>
+  </si>
+  <si>
+    <t>giftPinNum</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Now</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>993888779399528</t>
+  </si>
+  <si>
+    <t>88102</t>
+  </si>
+  <si>
+    <t>Gift</t>
+  </si>
+  <si>
+    <t>uname</t>
+  </si>
+  <si>
+    <t>pwd</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -85,6 +348,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -135,7 +403,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -144,20 +412,52 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -237,16 +537,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.0867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.75"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -256,27 +558,73 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="nikhil.kale@bnt-soft.com"/>
-    <hyperlink ref="A3" r:id="rId2" display="vaishali.shingare@bnt-soft.com"/>
+    <hyperlink ref="F2" r:id="rId1" display="aaaaacl@bnt.com"/>
+    <hyperlink ref="G2" r:id="rId2" display="aaaaacl@bnt.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -295,7 +643,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -304,20 +652,20 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
+    <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -329,4 +677,797 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Z2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.4183673469388"/>
+    <col collapsed="false" hidden="false" max="9" min="2" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.8367346938776"/>
+    <col collapsed="false" hidden="false" max="20" min="11" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="20.6989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="1" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="2" customFormat="true" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="5" t="n">
+        <v>1111111111</v>
+      </c>
+      <c r="M2" s="5" t="n">
+        <v>2222222222</v>
+      </c>
+      <c r="N2" s="5" t="n">
+        <v>3333333333</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" display="nikhil.kale@bnt-soft.com"/>
+    <hyperlink ref="K2" r:id="rId2" display="nikhil.kale@bnt-soft.com"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AG2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.6479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3367346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.1938775510204"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.4744897959184"/>
+    <col collapsed="false" hidden="false" max="14" min="10" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.5051020408163"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="22.9234693877551"/>
+    <col collapsed="false" hidden="false" max="21" min="17" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="19.5816326530612"/>
+    <col collapsed="false" hidden="false" max="27" min="23" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="16.9438775510204"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="27.5102040816327"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="16.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="32" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AB2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="X2" activeCellId="0" sqref="X2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="14.7244897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="1" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="11" width="20.2857142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="14.030612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="11" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="11" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="10" min="7" style="11" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="11" width="16.9438775510204"/>
+    <col collapsed="false" hidden="false" max="16" min="12" style="11" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="11" width="15.4183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="11" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="nikhil.kale@bnt-soft.com"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>